--- a/results/Auswertung.xlsx
+++ b/results/Auswertung.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerolf/tmp/sa/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26080" windowHeight="20140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="27240" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="FreeBSD" sheetId="2" r:id="rId2"/>
     <sheet name="OpenBSD" sheetId="3" r:id="rId3"/>
     <sheet name="Linux" sheetId="4" r:id="rId4"/>
     <sheet name="Minix" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -186,21 +194,26 @@
     <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -781,16 +794,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA48" sqref="AA48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -804,7 +817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -821,7 +834,7 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -838,7 +851,7 @@
         <v>41995</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -855,7 +868,7 @@
         <v>11.502000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -872,7 +885,7 @@
         <v>30.940999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -889,27 +902,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -926,7 +939,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -943,12 +956,12 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -965,7 +978,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -986,17 +999,17 @@
         <v>11.502328129279649</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1017,7 +1030,7 @@
         <v>3.3583156933691174</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1026,11 +1039,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1042,15 +1050,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1058,17 +1061,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1078,15 +1076,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1096,14 +1089,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>